--- a/students.xlsx
+++ b/students.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,17 +459,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24020220</t>
+          <t>24020013</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nguyễn Tiến Mạnh</t>
+          <t>Nguyễn An Quốc Anh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,20 +481,1296 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24020898</t>
+          <t>24020025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Tính</t>
+          <t>Tạ Duy Anh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>24020031</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trần Xuân Anh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24020040</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trần Việt Bảo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>24020049</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phạm Ánh Chúc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24020052</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nguyễn Mạnh Cường</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>24020058</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nguyễn Hữu Danh</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24020085</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lưu Quang Dũng</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24020094</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Phạm Ngọc Dũng</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24021436</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Triệu Tiến Dũng</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>24020097</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vũ Việt Dũng</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>24020107</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Trần Thùy Dương</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>24020061</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Doãn Minh Đạt</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>24020067</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bùi Văn Đình</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>24020073</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cao Anh Đức</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>24020080</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Đức</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>24020112</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Trường Giang</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>24020121</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tống Ngọc Hiển</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>24020124</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Kiều Đăng Hiếu</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>24020130</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Phan Đức Hiếu</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>24020139</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nguyễn Hồng Hoàng</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>24020142</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Trương Quang Hoành</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>24020157</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Đinh Quang Huy</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24020166</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Phạm Lê Huy</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24020151</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nguyễn Trọng Hưng</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>24020169</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nguyễn Trọng Khang</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>24020175</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Phạm Nam Khánh</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>24020184</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Anh Khôi</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>24020193</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Trịnh Tiến Kiệt</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>24020196</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nguyễn Tuấn Lâm</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>24020202</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nguyễn Tuấn Linh</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>24021555</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nguyễn Đức Long</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>24020211</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Trần Bảo Long</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>24020214</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hoàng Xuân Lực</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>24021558</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ngô Thị Cẩm Ly</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>24020220</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nguyễn Tiến Mạnh</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>24020229</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Kiều Nhật Minh</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>24020247</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Trần Hoài Nam</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>24020251</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nguyễn Trung Nghĩa</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>24020256</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nguyễn Lê Duy Nhân</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>24020265</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Phạm Công Phát</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>24020269</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nguyễn Duy Phong</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>24020272</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Phú</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>24020274</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Đinh Gia Phúc</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>23021661</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Phúc</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>24020283</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Lường Tú Quân</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>24020292</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Đỗ Minh Sơn</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>24020301</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Cao Thị Mai Sương</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>24020305</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Đào Quang Thái</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>24020310</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Triệu Tuấn Thành</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>24020660</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Phan Văn Thuận</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>24020319</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Thìn Thị Thúy</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>24020323</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Nguyễn Xuân Tiến</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>24020328</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Trần Huyền Trang</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>24020332</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nguyễn Huy Trọng</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>24020337</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nguyễn Thành Trung</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>24022754</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Hoàng Tạ Minh Tuấn</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>24020355</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Phạm Hữu Tùng</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>24020364</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nguyễn Hữu Vinh</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>24020368</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nguyễn Lưu Vũ</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/students.xlsx
+++ b/students.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D293"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1185,17 +1185,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>24020220</t>
+          <t>24020229</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nguyễn Tiến Mạnh</t>
+          <t>Kiều Nhật Minh</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1207,17 +1207,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>24020229</t>
+          <t>24020247</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kiều Nhật Minh</t>
+          <t>Trần Hoài Nam</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1229,17 +1229,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>24020247</t>
+          <t>24020251</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Trần Hoài Nam</t>
+          <t>Nguyễn Trung Nghĩa</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1251,17 +1251,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>24020251</t>
+          <t>24020256</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nguyễn Trung Nghĩa</t>
+          <t>Nguyễn Lê Duy Nhân</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1273,17 +1273,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>24020256</t>
+          <t>24020265</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nguyễn Lê Duy Nhân</t>
+          <t>Phạm Công Phát</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1295,17 +1295,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>24020265</t>
+          <t>24020269</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Phạm Công Phát</t>
+          <t>Nguyễn Duy Phong</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1317,17 +1317,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>24020269</t>
+          <t>24020272</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nguyễn Duy Phong</t>
+          <t>Nguyễn Ngọc Phú</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1339,17 +1339,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24020272</t>
+          <t>24020274</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Phú</t>
+          <t>Đinh Gia Phúc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1361,17 +1361,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>24020274</t>
+          <t>24020283</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Đinh Gia Phúc</t>
+          <t>Lường Tú Quân</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1383,17 +1383,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>24020283</t>
+          <t>24020292</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Lường Tú Quân</t>
+          <t>Đỗ Minh Sơn</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1405,17 +1405,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>24020292</t>
+          <t>24020301</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Đỗ Minh Sơn</t>
+          <t>Cao Thị Mai Sương</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1427,17 +1427,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>24020301</t>
+          <t>24020305</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cao Thị Mai Sương</t>
+          <t>Đào Quang Thái</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1449,17 +1449,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>24020305</t>
+          <t>24020310</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Đào Quang Thái</t>
+          <t>Triệu Tuấn Thành</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1471,17 +1471,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>24020310</t>
+          <t>24020319</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Triệu Tuấn Thành</t>
+          <t>Thìn Thị Thúy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1493,17 +1493,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>24020319</t>
+          <t>24020323</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Thìn Thị Thúy</t>
+          <t>Nguyễn Xuân Tiến</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1515,17 +1515,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>24020323</t>
+          <t>24020328</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Tiến</t>
+          <t>Trần Huyền Trang</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1537,17 +1537,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>24020328</t>
+          <t>24020332</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Trần Huyền Trang</t>
+          <t>Nguyễn Huy Trọng</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1559,17 +1559,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>24020332</t>
+          <t>24020337</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nguyễn Huy Trọng</t>
+          <t>Nguyễn Thành Trung</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1581,17 +1581,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>24020337</t>
+          <t>24020355</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nguyễn Thành Trung</t>
+          <t>Phạm Hữu Tùng</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1603,17 +1603,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>24020355</t>
+          <t>24020364</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Phạm Hữu Tùng</t>
+          <t>Nguyễn Hữu Vinh</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1625,17 +1625,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>24020364</t>
+          <t>24020368</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Vinh</t>
+          <t>Nguyễn Lưu Vũ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1647,17 +1647,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>24020368</t>
+          <t>24020660</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Nguyễn Lưu Vũ</t>
+          <t>Phan Văn Thuận</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1669,17 +1669,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>24020660</t>
+          <t>24021436</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Phan Văn Thuận</t>
+          <t>Triệu Tiến Dũng</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1691,17 +1691,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>24021436</t>
+          <t>24021555</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Triệu Tiến Dũng</t>
+          <t>Nguyễn Đức Long</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1713,17 +1713,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>24021555</t>
+          <t>24021558</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Long</t>
+          <t>Ngô Thị Cẩm Ly</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1735,17 +1735,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>24021558</t>
+          <t>24022245</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Ly</t>
+          <t>Bùi Tuấn An</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1757,17 +1757,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>24022245</t>
+          <t>24022246</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Bùi Tuấn An</t>
+          <t>Nguyễn Bá An</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1779,17 +1779,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>24022246</t>
+          <t>24022247</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nguyễn Bá An</t>
+          <t>Nguyễn Ngọc Bình An</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1801,17 +1801,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>24022247</t>
+          <t>24022248</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bình An</t>
+          <t>Hoàng Hải Anh</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1823,17 +1823,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>24022248</t>
+          <t>24022249</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hoàng Hải Anh</t>
+          <t>Hoàng Tuấn Anh</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1845,17 +1845,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>24022249</t>
+          <t>24022251</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hoàng Tuấn Anh</t>
+          <t>Lê Đức Anh</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1867,17 +1867,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>24022251</t>
+          <t>24022252</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Lê Đức Anh</t>
+          <t>Lê Hoàng Thảo Anh</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1889,17 +1889,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>24022252</t>
+          <t>24022253</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thảo Anh</t>
+          <t>Lê Vân Anh</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1911,17 +1911,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>24022253</t>
+          <t>24022254</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Lê Vân Anh</t>
+          <t>Nguyễn Công Anh</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1933,17 +1933,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>24022254</t>
+          <t>24022255</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nguyễn Công Anh</t>
+          <t>Nguyễn Hồng Anh</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1955,17 +1955,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>24022255</t>
+          <t>24022257</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Anh</t>
+          <t>Nguyễn Xuân Anh</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1977,17 +1977,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>24022257</t>
+          <t>24022258</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Anh</t>
+          <t>Tống Đức Hồng Anh</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1999,17 +1999,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>24022258</t>
+          <t>24022259</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tống Đức Hồng Anh</t>
+          <t>Trần Quốc Anh</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2021,17 +2021,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>24022259</t>
+          <t>24022260</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Trần Quốc Anh</t>
+          <t>Vũ Hải Anh</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2043,17 +2043,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>24022260</t>
+          <t>24022261</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Vũ Hải Anh</t>
+          <t>Vũ Thế Anh</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2065,17 +2065,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>24022261</t>
+          <t>24022263</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Vũ Thế Anh</t>
+          <t>Đào Duy Thái Bảo</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2087,17 +2087,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>24022263</t>
+          <t>24022264</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Đào Duy Thái Bảo</t>
+          <t>Nguyễn Đức Vũ Bảo</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2109,17 +2109,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>24022264</t>
+          <t>24022265</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Vũ Bảo</t>
+          <t>Nguyễn Phúc Gia Bảo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2131,17 +2131,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>24022265</t>
+          <t>24022266</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Gia Bảo</t>
+          <t>Nguyễn Xuân Bảo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2153,17 +2153,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>24022266</t>
+          <t>24022267</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Bảo</t>
+          <t>Phạm Gia Bảo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2175,17 +2175,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>24022267</t>
+          <t>24022269</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Phạm Gia Bảo</t>
+          <t>Nguyễn Đức Bình</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2197,17 +2197,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>24022269</t>
+          <t>24022270</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Bình</t>
+          <t>Lê Hồng Phương Chi</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2219,17 +2219,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>24022270</t>
+          <t>24022271</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lê Hồng Phương Chi</t>
+          <t>Lê Minh Chiến</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2241,17 +2241,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>24022271</t>
+          <t>24022272</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Lê Minh Chiến</t>
+          <t>Nguyễn Hoàng Công</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2263,17 +2263,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>24022272</t>
+          <t>24022273</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Công</t>
+          <t>Nguyễn Thị Thu Cúc</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2285,17 +2285,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>24022273</t>
+          <t>24022275</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thu Cúc</t>
+          <t>Đỗ Kiên Cường</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2307,17 +2307,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>24022275</t>
+          <t>24022276</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Đỗ Kiên Cường</t>
+          <t>Lê Mạnh Cường</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2329,17 +2329,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>24022276</t>
+          <t>24022277</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lê Mạnh Cường</t>
+          <t>Lê Ngọc Minh Cường</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2351,17 +2351,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>24022277</t>
+          <t>24022278</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Lê Ngọc Minh Cường</t>
+          <t>Tạ Mạnh Cường</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2373,17 +2373,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>24022278</t>
+          <t>24022279</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tạ Mạnh Cường</t>
+          <t>Vũ Việt Cường</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2395,17 +2395,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>24022279</t>
+          <t>24022281</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Vũ Việt Cường</t>
+          <t>Nguyễn Hải Đăng</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2417,7 +2417,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>24022281</t>
+          <t>24022282</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2439,17 +2439,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>24022282</t>
+          <t>24022283</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Nguyễn Hải Đăng</t>
+          <t>Nguyễn Quý Hải Đăng</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2461,17 +2461,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>24022283</t>
+          <t>24022284</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Nguyễn Quý Hải Đăng</t>
+          <t>Cao Tiến Đạt</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2483,17 +2483,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>24022284</t>
+          <t>24022285</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cao Tiến Đạt</t>
+          <t>Nguyễn Danh Đạt</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2505,17 +2505,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>24022285</t>
+          <t>24022287</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Nguyễn Danh Đạt</t>
+          <t>Trần Khánh Đạt</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2527,17 +2527,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>24022287</t>
+          <t>24022288</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Trần Khánh Đạt</t>
+          <t>Trần Tiến Đạt</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2549,17 +2549,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>24022288</t>
+          <t>24022289</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Trần Tiến Đạt</t>
+          <t>Đồng Minh Đức</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2571,17 +2571,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>24022289</t>
+          <t>24022290</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Đồng Minh Đức</t>
+          <t>Dương Hoàng Đức</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2593,17 +2593,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>24022290</t>
+          <t>24022291</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Dương Hoàng Đức</t>
+          <t>Lê Minh Đức</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2615,17 +2615,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>24022291</t>
+          <t>24022293</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lê Minh Đức</t>
+          <t>Lê Trung Đức</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2637,17 +2637,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>24022293</t>
+          <t>24022294</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Lê Trung Đức</t>
+          <t>Nguyễn Minh Đức</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2659,17 +2659,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>24022294</t>
+          <t>24022295</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Đức</t>
+          <t>Nguyễn Việt Đức</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2681,17 +2681,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>24022295</t>
+          <t>24022296</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Nguyễn Việt Đức</t>
+          <t>Phạm Lê Việt Đức</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2703,17 +2703,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>24022296</t>
+          <t>24022297</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Phạm Lê Việt Đức</t>
+          <t>Phan Anh Đức</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2725,17 +2725,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>24022297</t>
+          <t>24022299</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Phan Anh Đức</t>
+          <t>Bùi Tiến Dũng</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2747,17 +2747,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>24022299</t>
+          <t>24022300</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Bùi Tiến Dũng</t>
+          <t>Hà Đức Dũng</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2769,17 +2769,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>24022300</t>
+          <t>24022301</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Hà Đức Dũng</t>
+          <t>Nguyễn Tiến Dũng</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2791,17 +2791,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>24022301</t>
+          <t>24022302</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Nguyễn Tiến Dũng</t>
+          <t>Nguyễn Trung Đức Dũng</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2813,17 +2813,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>24022302</t>
+          <t>24022303</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Nguyễn Trung Đức Dũng</t>
+          <t>Vũ Hoàng Dũng</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2835,17 +2835,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>24022303</t>
+          <t>24022305</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Vũ Hoàng Dũng</t>
+          <t>Nguyễn Khắc Hoàng Dương</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2857,17 +2857,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>24022305</t>
+          <t>24022306</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Nguyễn Khắc Hoàng Dương</t>
+          <t>Nguyễn Tùng Dương</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2879,17 +2879,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>24022306</t>
+          <t>24022307</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Nguyễn Tùng Dương</t>
+          <t>Phạm Thái Dương</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2901,17 +2901,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>24022307</t>
+          <t>24022308</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Phạm Thái Dương</t>
+          <t>Trần Hữu Dương</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2923,17 +2923,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>24022308</t>
+          <t>24022309</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Trần Hữu Dương</t>
+          <t>Trần Tùng Dương</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2945,12 +2945,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>24022309</t>
+          <t>24022311</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Trần Tùng Dương</t>
+          <t>Ngô Đức Duy</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2967,17 +2967,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>24022311</t>
+          <t>24022312</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ngô Đức Duy</t>
+          <t>Nguyễn Bảo Duy</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2989,17 +2989,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>24022312</t>
+          <t>24022313</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Duy</t>
+          <t>Nguyễn Sơn Duy</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3011,17 +3011,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>24022313</t>
+          <t>24022314</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Nguyễn Sơn Duy</t>
+          <t>Trần Bùi Hà Giang</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3033,17 +3033,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>24022314</t>
+          <t>24022315</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Trần Bùi Hà Giang</t>
+          <t>Chu Việt Hà</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3055,17 +3055,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>24022315</t>
+          <t>24022317</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Chu Việt Hà</t>
+          <t>Nguyễn Việt Hà</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3077,17 +3077,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>24022317</t>
+          <t>24022318</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Nguyễn Việt Hà</t>
+          <t>Trịnh Tuấn Hải</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3099,17 +3099,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>24022318</t>
+          <t>24022319</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Trịnh Tuấn Hải</t>
+          <t>Nguyễn Cảnh Hào</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3121,17 +3121,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>24022319</t>
+          <t>24022320</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Nguyễn Cảnh Hào</t>
+          <t>Võ Văn Hậu</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3143,17 +3143,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>24022320</t>
+          <t>24022321</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Võ Văn Hậu</t>
+          <t>Nguyễn Thị Hiền</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3165,17 +3165,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>24022321</t>
+          <t>24022323</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hiền</t>
+          <t>Nguyễn Thế Hiển</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3187,17 +3187,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>24022323</t>
+          <t>24022324</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Nguyễn Thế Hiển</t>
+          <t>Bùi Hữu Hiệp</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3209,17 +3209,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>24022324</t>
+          <t>24022325</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Bùi Hữu Hiệp</t>
+          <t>Ngô Trọng Hiệp</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3231,17 +3231,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>24022325</t>
+          <t>24022326</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ngô Trọng Hiệp</t>
+          <t>Hoàng Mạnh Hiếu</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3253,17 +3253,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>24022326</t>
+          <t>24022327</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hoàng Mạnh Hiếu</t>
+          <t>Lê Huy Hiếu</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3275,17 +3275,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>24022327</t>
+          <t>24022329</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lê Huy Hiếu</t>
+          <t>Nguyễn Đắc Trung Hiếu</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3297,17 +3297,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>24022329</t>
+          <t>24022330</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nguyễn Đắc Trung Hiếu</t>
+          <t>Trần Trung Hiếu</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3319,17 +3319,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>24022330</t>
+          <t>24022331</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Trần Trung Hiếu</t>
+          <t>Văn Đức Hiếu</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3341,17 +3341,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>24022331</t>
+          <t>24022332</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Văn Đức Hiếu</t>
+          <t>Cao Huy Hòa</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3363,17 +3363,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>24022332</t>
+          <t>24022333</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cao Huy Hòa</t>
+          <t>Nguyễn Hữu Hòa</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3385,17 +3385,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>24022333</t>
+          <t>24022335</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Hòa</t>
+          <t>Đinh Ích Minh Hoàng</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3407,17 +3407,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>24022335</t>
+          <t>24022336</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Đinh Ích Minh Hoàng</t>
+          <t>Hoàng Huy Hoàng</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3429,17 +3429,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>24022336</t>
+          <t>24022337</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Hoàng Huy Hoàng</t>
+          <t>Lương Quang Hoàng</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3451,17 +3451,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>24022337</t>
+          <t>24022338</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lương Quang Hoàng</t>
+          <t>Nguyễn Huy Hoàng</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3473,17 +3473,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>24022338</t>
+          <t>24022339</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nguyễn Huy Hoàng</t>
+          <t>Nguyễn Minh Hoàng</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3495,17 +3495,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>24022339</t>
+          <t>24022341</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Hoàng</t>
+          <t>Trương Huy Hoàng</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3517,17 +3517,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>24022341</t>
+          <t>24022342</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Trương Huy Hoàng</t>
+          <t>Đỗ Đức Hùng</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3539,17 +3539,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>24022342</t>
+          <t>24022343</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Đỗ Đức Hùng</t>
+          <t>Hoàng Quốc Hùng</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3561,17 +3561,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>24022343</t>
+          <t>24022344</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Hoàng Quốc Hùng</t>
+          <t>Nguyễn Viết Hùng</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3583,17 +3583,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>24022344</t>
+          <t>24022345</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Nguyễn Viết Hùng</t>
+          <t>Bùi Quang Hưng</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3605,17 +3605,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>24022345</t>
+          <t>24022347</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Bùi Quang Hưng</t>
+          <t>Dương Việt Hưng</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3627,17 +3627,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>24022347</t>
+          <t>24022348</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Dương Việt Hưng</t>
+          <t>Hà Huy Hưng</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3649,17 +3649,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>24022348</t>
+          <t>24022349</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Hà Huy Hưng</t>
+          <t>Nguyễn Duy Hưng</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3671,17 +3671,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>24022349</t>
+          <t>24022350</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Nguyễn Duy Hưng</t>
+          <t>Phạm Thế Hưng</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3693,17 +3693,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>24022350</t>
+          <t>24022351</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Phạm Thế Hưng</t>
+          <t>Phan Quang Hưng</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3715,17 +3715,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>24022351</t>
+          <t>24022353</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Phan Quang Hưng</t>
+          <t>Đào Việt Huy</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3737,17 +3737,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>24022353</t>
+          <t>24022354</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Đào Việt Huy</t>
+          <t>Doanh Quang Huy</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3759,17 +3759,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>24022354</t>
+          <t>24022355</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Doanh Quang Huy</t>
+          <t>Khổng Quang Huy</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3781,17 +3781,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>24022355</t>
+          <t>24022356</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Khổng Quang Huy</t>
+          <t>Nguyễn Minh Huy</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3803,17 +3803,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>24022356</t>
+          <t>24022357</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Huy</t>
+          <t>Phạm Gia Hồ Huy</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3825,17 +3825,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>24022357</t>
+          <t>24022359</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Phạm Gia Hồ Huy</t>
+          <t>Hoàng Tuấn Khanh</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3847,17 +3847,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>24022359</t>
+          <t>24022360</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Hoàng Tuấn Khanh</t>
+          <t>Doãn Nam Khánh</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3869,17 +3869,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>24022360</t>
+          <t>24022361</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Doãn Nam Khánh</t>
+          <t>Nguyễn Duy Khánh</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3891,17 +3891,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>24022361</t>
+          <t>24022362</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Nguyễn Duy Khánh</t>
+          <t>Nguyễn Quốc Khánh</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3913,17 +3913,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>24022362</t>
+          <t>24022363</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Nguyễn Quốc Khánh</t>
+          <t>Nguyễn Tiến Ngọc Khánh</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3935,17 +3935,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>24022363</t>
+          <t>24022365</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Nguyễn Tiến Ngọc Khánh</t>
+          <t>Đào Minh Khoa</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3957,17 +3957,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>24022365</t>
+          <t>24022366</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Đào Minh Khoa</t>
+          <t>Hà Anh Khoa</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3979,17 +3979,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>24022366</t>
+          <t>24022367</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Hà Anh Khoa</t>
+          <t>Lê Anh Khoa</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4001,17 +4001,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>24022367</t>
+          <t>24022368</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Lê Anh Khoa</t>
+          <t>Nguyễn Minh Khoa</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4023,17 +4023,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>24022368</t>
+          <t>24022369</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Khoa</t>
+          <t>Phạm Đăng Khoa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4045,17 +4045,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>24022369</t>
+          <t>24022371</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Phạm Đăng Khoa</t>
+          <t>Hoàng Công Khôi</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4067,17 +4067,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>24022371</t>
+          <t>24022372</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Hoàng Công Khôi</t>
+          <t>Nguyễn Đăng Khôi</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4089,17 +4089,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>24022372</t>
+          <t>24022373</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nguyễn Đăng Khôi</t>
+          <t>Nguyễn Công Kiên</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4111,17 +4111,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>24022373</t>
+          <t>24022374</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Nguyễn Công Kiên</t>
+          <t>Nguyễn Trung Kiên</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4133,17 +4133,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>24022374</t>
+          <t>24022375</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Nguyễn Trung Kiên</t>
+          <t>Trần Trung Kiên</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4155,17 +4155,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>24022375</t>
+          <t>24022377</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Trần Trung Kiên</t>
+          <t>Lê Thanh Lâm</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4177,17 +4177,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>24022377</t>
+          <t>24022378</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Lê Thanh Lâm</t>
+          <t>Nguyễn Thành Lâm</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4199,17 +4199,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>24022378</t>
+          <t>24022379</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nguyễn Thành Lâm</t>
+          <t>Phạm Thanh Lâm</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4221,17 +4221,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>24022379</t>
+          <t>24022380</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Phạm Thanh Lâm</t>
+          <t>Phạm Tùng Lâm</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4243,17 +4243,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>24022380</t>
+          <t>24022381</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Phạm Tùng Lâm</t>
+          <t>Bùi Quang Lê</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4265,17 +4265,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>24022381</t>
+          <t>24022383</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Bùi Quang Lê</t>
+          <t>Lê Quyền Linh</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4287,17 +4287,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>24022383</t>
+          <t>24022384</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Lê Quyền Linh</t>
+          <t>Lê Thị Khánh Linh</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4309,17 +4309,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>24022384</t>
+          <t>24022385</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Lê Thị Khánh Linh</t>
+          <t>Phạm Thị Khánh Linh</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4331,17 +4331,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>24022385</t>
+          <t>24022386</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Phạm Thị Khánh Linh</t>
+          <t>Trương Ái Linh</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4353,17 +4353,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>24022386</t>
+          <t>24022387</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Trương Ái Linh</t>
+          <t>Vũ Hoàng Diệu Linh</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4375,17 +4375,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>24022387</t>
+          <t>24022389</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Vũ Hoàng Diệu Linh</t>
+          <t>Đỗ Hoàng Long</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4397,17 +4397,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>24022389</t>
+          <t>24022390</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Đỗ Hoàng Long</t>
+          <t>Hoa Văn Long</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4419,17 +4419,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>24022390</t>
+          <t>24022391</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Hoa Văn Long</t>
+          <t>Nguyễn Đức Long</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4441,17 +4441,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>24022391</t>
+          <t>24022392</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Long</t>
+          <t>Đặng Duy Mạnh</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4463,17 +4463,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>24022392</t>
+          <t>24022393</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Đặng Duy Mạnh</t>
+          <t>Đoàn Quang Mạnh</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4485,17 +4485,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>24022393</t>
+          <t>24022395</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Đoàn Quang Mạnh</t>
+          <t>Nguyễn Tiến Mạnh</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4507,17 +4507,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>24022395</t>
+          <t>24022396</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Nguyễn Tiến Mạnh</t>
+          <t>Bùi Công Minh</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4529,17 +4529,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>24022396</t>
+          <t>24022397</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bùi Công Minh</t>
+          <t>Đặng Quang Minh</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4551,17 +4551,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>24022397</t>
+          <t>24022398</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Đặng Quang Minh</t>
+          <t>Đinh Quang Minh</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4573,17 +4573,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>24022398</t>
+          <t>24022399</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Đinh Quang Minh</t>
+          <t>Đỗ Hoàng Minh</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4595,17 +4595,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>24022399</t>
+          <t>24022401</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Đỗ Hoàng Minh</t>
+          <t>Dương Quang Minh</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4617,17 +4617,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>24022401</t>
+          <t>24022402</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Dương Quang Minh</t>
+          <t>Lê Công Minh</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4639,17 +4639,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>24022402</t>
+          <t>24022403</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Lê Công Minh</t>
+          <t>Nguyễn Đoàn Nhật Minh</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4661,17 +4661,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>24022403</t>
+          <t>24022404</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Nhật Minh</t>
+          <t>Nguyễn Đức Minh</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4683,7 +4683,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>24022404</t>
+          <t>24022405</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4705,17 +4705,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>24022405</t>
+          <t>24022407</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Minh</t>
+          <t>Nguyễn Tân Hoàng Minh</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4727,17 +4727,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>24022407</t>
+          <t>24022408</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Nguyễn Tân Hoàng Minh</t>
+          <t>Nguyễn Thị Nhật Minh</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4749,17 +4749,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>24022408</t>
+          <t>24022409</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhật Minh</t>
+          <t>Phạm Quang Minh</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4771,7 +4771,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>24022409</t>
+          <t>24022410</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4793,17 +4793,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>24022410</t>
+          <t>24022411</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Phạm Quang Minh</t>
+          <t>Phạm Văn Minh</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4815,17 +4815,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>24022411</t>
+          <t>24022413</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Phạm Văn Minh</t>
+          <t>Trịnh Bình Minh</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4837,17 +4837,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>24022413</t>
+          <t>24022414</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Trịnh Bình Minh</t>
+          <t>Nguyễn Hải Nam</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4859,17 +4859,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>24022414</t>
+          <t>24022415</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Nguyễn Hải Nam</t>
+          <t>Phạm Bá Nam</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4881,17 +4881,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>24022415</t>
+          <t>24022416</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Phạm Bá Nam</t>
+          <t>Phạm Vũ Nam</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4903,17 +4903,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>24022416</t>
+          <t>24022417</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Phạm Vũ Nam</t>
+          <t>Lê Tiến Nghĩa</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4925,17 +4925,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>24022417</t>
+          <t>24022419</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Lê Tiến Nghĩa</t>
+          <t>Quách Lê Hồng Ngọc</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4947,17 +4947,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>24022419</t>
+          <t>24022420</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Quách Lê Hồng Ngọc</t>
+          <t>Dương Trọng Nguyên</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4969,17 +4969,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>24022420</t>
+          <t>24022421</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Dương Trọng Nguyên</t>
+          <t>Trần Hoàng Nguyên</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4991,17 +4991,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>24022421</t>
+          <t>24022422</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Trần Hoàng Nguyên</t>
+          <t>Nguyễn Thiện Nhân</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5013,17 +5013,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>24022422</t>
+          <t>24022423</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Nguyễn Thiện Nhân</t>
+          <t>Đặng Minh Nhật</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5035,17 +5035,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>24022423</t>
+          <t>24022425</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Đặng Minh Nhật</t>
+          <t>Vũ Đức Phong</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5057,17 +5057,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>24022425</t>
+          <t>24022426</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Vũ Đức Phong</t>
+          <t>Lê Việt Phú</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5079,17 +5079,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>24022426</t>
+          <t>24022427</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Lê Việt Phú</t>
+          <t>Nguyễn Đình Phú</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5101,17 +5101,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>24022427</t>
+          <t>24022428</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Nguyễn Đình Phú</t>
+          <t>Ngô Huy Phúc</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5123,17 +5123,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>24022428</t>
+          <t>24022429</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ngô Huy Phúc</t>
+          <t>Ngô Mai Phương</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5145,17 +5145,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>24022429</t>
+          <t>24022431</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ngô Mai Phương</t>
+          <t>Nguyễn Việt Phương</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5167,17 +5167,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>24022431</t>
+          <t>24022432</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Nguyễn Việt Phương</t>
+          <t>Đỗ Mạnh Quân</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5189,17 +5189,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>24022432</t>
+          <t>24022433</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Đỗ Mạnh Quân</t>
+          <t>Lê Hoàng Quân</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5211,17 +5211,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>24022433</t>
+          <t>24022434</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Lê Hoàng Quân</t>
+          <t>Nguyễn Minh Quân</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5233,17 +5233,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>24022434</t>
+          <t>24022435</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Quân</t>
+          <t>Trần Đức Quang</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5255,17 +5255,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>24022435</t>
+          <t>24022437</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Trần Đức Quang</t>
+          <t>Nguyễn Sỹ Quyền</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5277,17 +5277,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>24022437</t>
+          <t>24022438</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Nguyễn Sỹ Quyền</t>
+          <t>Vũ Ngọc Quyền</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5299,17 +5299,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>24022438</t>
+          <t>24022439</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Vũ Ngọc Quyền</t>
+          <t>Lê Văn Sang</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5321,17 +5321,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>24022439</t>
+          <t>24022440</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Lê Văn Sang</t>
+          <t>Nguyễn Quang Sang</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5343,17 +5343,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>24022440</t>
+          <t>24022441</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Nguyễn Quang Sang</t>
+          <t>Lưu Uyên Sơn</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5365,17 +5365,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>24022441</t>
+          <t>24022443</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Lưu Uyên Sơn</t>
+          <t>Nguyễn Lê Nam Sơn</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5387,17 +5387,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>24022443</t>
+          <t>24022444</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Nguyễn Lê Nam Sơn</t>
+          <t>Nguyễn Phúc Sơn</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5409,17 +5409,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>24022444</t>
+          <t>24022445</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Sơn</t>
+          <t>Nguyễn Sỹ Trường Sơn</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5431,17 +5431,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>24022445</t>
+          <t>24022446</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Nguyễn Sỹ Trường Sơn</t>
+          <t>Vũ Ngọc Sơn</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5453,17 +5453,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>24022446</t>
+          <t>24022447</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Vũ Ngọc Sơn</t>
+          <t>Lưu Xuân Tân</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5475,17 +5475,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>24022447</t>
+          <t>24022449</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Lưu Xuân Tân</t>
+          <t>Phạm Danh Thái</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5497,17 +5497,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>24022449</t>
+          <t>24022450</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Phạm Danh Thái</t>
+          <t>Tống Quang Thái</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5519,17 +5519,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>24022450</t>
+          <t>24022451</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Tống Quang Thái</t>
+          <t>Trần Quang Thái</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5541,17 +5541,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>24022451</t>
+          <t>24022452</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Trần Quang Thái</t>
+          <t>Đỗ Duy Thành</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5563,17 +5563,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>24022452</t>
+          <t>24022453</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Đỗ Duy Thành</t>
+          <t>Lê Tiến Thành</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5585,17 +5585,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>24022453</t>
+          <t>24022455</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Lê Tiến Thành</t>
+          <t>Phạm Công Thành</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5607,17 +5607,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>24022455</t>
+          <t>24022456</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Phạm Công Thành</t>
+          <t>Trương Văn Thành</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5629,17 +5629,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>24022456</t>
+          <t>24022457</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Trương Văn Thành</t>
+          <t>Hà Ngọc Thiện</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5651,17 +5651,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>24022457</t>
+          <t>24022458</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Hà Ngọc Thiện</t>
+          <t>Đỗ Khắc Phúc Thịnh</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5673,17 +5673,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>24022458</t>
+          <t>24022461</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Đỗ Khắc Phúc Thịnh</t>
+          <t>Phạm Văn Vương Thuận</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5695,17 +5695,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>24022461</t>
+          <t>24022462</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Phạm Văn Vương Thuận</t>
+          <t>Nguyễn Huyền Thương</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5717,17 +5717,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>24022462</t>
+          <t>24022463</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Nguyễn Huyền Thương</t>
+          <t>Đàm Quang Tiến</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5739,17 +5739,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>24022463</t>
+          <t>24022464</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Đàm Quang Tiến</t>
+          <t>Phạm Quang Tiến</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5761,17 +5761,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>24022464</t>
+          <t>24022467</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Phạm Quang Tiến</t>
+          <t>Phạm Sỹ Toàn</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5783,17 +5783,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>24022467</t>
+          <t>24022468</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Phạm Sỹ Toàn</t>
+          <t>Tạ Văn Toàn</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5805,17 +5805,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>24022468</t>
+          <t>24022469</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Tạ Văn Toàn</t>
+          <t>Trịnh Kế Toàn</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5827,17 +5827,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>24022469</t>
+          <t>24022470</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Trịnh Kế Toàn</t>
+          <t>Nguyễn Thị Hiền Trang</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5849,17 +5849,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>24022470</t>
+          <t>24022473</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hiền Trang</t>
+          <t>Nguyễn Đức Trung</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5871,17 +5871,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>24022473</t>
+          <t>24022474</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Trung</t>
+          <t>Nguyễn Quốc Trung</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5893,17 +5893,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>24022474</t>
+          <t>24022475</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Nguyễn Quốc Trung</t>
+          <t>Nguyễn Văn Trung</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5915,17 +5915,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>24022475</t>
+          <t>24022476</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Trung</t>
+          <t>Phạm Thành Trung</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5937,17 +5937,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>24022476</t>
+          <t>24022479</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Phạm Thành Trung</t>
+          <t>Nguyễn Quang Trường</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5959,17 +5959,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>24022479</t>
+          <t>24022480</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Nguyễn Quang Trường</t>
+          <t>Nguyễn Thiên Trường</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5981,17 +5981,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>24022480</t>
+          <t>24022481</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Nguyễn Thiên Trường</t>
+          <t>Nguyễn Tất Tú</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6003,17 +6003,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>24022481</t>
+          <t>24022482</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Nguyễn Tất Tú</t>
+          <t>Nguyễn Anh Tuấn</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6025,17 +6025,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>24022482</t>
+          <t>24022485</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Nguyễn Anh Tuấn</t>
+          <t>Trần Công Tuấn</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6047,17 +6047,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>24022485</t>
+          <t>24022486</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Trần Công Tuấn</t>
+          <t>Trần Đoàn Minh Tuệ</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6069,17 +6069,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>24022486</t>
+          <t>24022487</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Trần Đoàn Minh Tuệ</t>
+          <t>Nguyễn Văn Tùng</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6091,17 +6091,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>24022487</t>
+          <t>24022488</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Tùng</t>
+          <t>Phạm Nguyễn Xuân Tùng</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6113,17 +6113,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>24022488</t>
+          <t>24022491</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Phạm Nguyễn Xuân Tùng</t>
+          <t>Đào Gia Thế Vũ</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6135,17 +6135,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>24022491</t>
+          <t>24022492</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Đào Gia Thế Vũ</t>
+          <t>Nguyễn Anh Vũ</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6157,17 +6157,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>24022492</t>
+          <t>24022493</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Nguyễn Anh Vũ</t>
+          <t>Nguyễn Văn Vũ</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6179,17 +6179,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>24022493</t>
+          <t>24022494</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Vũ</t>
+          <t>Trần Hoàng Vũ</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6201,17 +6201,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>24022494</t>
+          <t>24022754</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Trần Hoàng Vũ</t>
+          <t>Hoàng Tạ Minh Tuấn</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6223,17 +6223,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>24022754</t>
+          <t>24022847</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Hoàng Tạ Minh Tuấn</t>
+          <t>Vũ Lê Bình An</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -6245,17 +6245,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>24022847</t>
+          <t>24022849</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Vũ Lê Bình An</t>
+          <t>Trần Quốc Bảo</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -6267,17 +6267,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>24022849</t>
+          <t>24022851</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Trần Quốc Bảo</t>
+          <t>Trần Quốc Đại</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -6289,17 +6289,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>24022851</t>
+          <t>24022853</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Trần Quốc Đại</t>
+          <t>Hoàng Tiến Đạt</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6311,17 +6311,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>24022853</t>
+          <t>24022855</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Hoàng Tiến Đạt</t>
+          <t>Phạm Thành Đạt</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -6333,17 +6333,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>24022855</t>
+          <t>24022857</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Phạm Thành Đạt</t>
+          <t>Lê Trung Đức</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -6355,17 +6355,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>24022857</t>
+          <t>24022859</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Lê Trung Đức</t>
+          <t>Lê Chí Dũng</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6377,17 +6377,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>24022859</t>
+          <t>24022861</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Lê Chí Dũng</t>
+          <t>Trần Việt Dũng</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6399,17 +6399,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>24022861</t>
+          <t>24022863</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Trần Việt Dũng</t>
+          <t>Nguyễn Đình Khánh Duy</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6421,17 +6421,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>24022863</t>
+          <t>24022865</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Nguyễn Đình Khánh Duy</t>
+          <t>Đặng Thanh Hải</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6443,17 +6443,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>24022865</t>
+          <t>24022867</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Đặng Thanh Hải</t>
+          <t>Nguyễn Xuân Hậu</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6465,17 +6465,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>24022867</t>
+          <t>24022869</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hậu</t>
+          <t>Đỗ Minh Hiếu</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6487,17 +6487,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>24022869</t>
+          <t>24022871</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Đỗ Minh Hiếu</t>
+          <t>Tào Hiếu</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -6509,17 +6509,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>24022871</t>
+          <t>24022873</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Tào Hiếu</t>
+          <t>Hoàng Minh Hoàng</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6531,17 +6531,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>24022873</t>
+          <t>24022875</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Hoàng Minh Hoàng</t>
+          <t>Trần Huy Hoàng</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6553,17 +6553,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>24022875</t>
+          <t>24022877</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Trần Huy Hoàng</t>
+          <t>Phạm Quốc Hưng</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6575,17 +6575,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>24022877</t>
+          <t>24022879</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Phạm Quốc Hưng</t>
+          <t>Phạm Duy Khánh</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6597,17 +6597,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>24022879</t>
+          <t>24022881</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Phạm Duy Khánh</t>
+          <t>Lưu Đình Khôi</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6619,17 +6619,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>24022881</t>
+          <t>24022883</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Lưu Đình Khôi</t>
+          <t>Nguyễn Thành Long</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6641,17 +6641,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>24022883</t>
+          <t>24022885</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Nguyễn Thành Long</t>
+          <t>Trần Đình Lộc</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6663,17 +6663,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>24022885</t>
+          <t>24022887</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Trần Đình Lộc</t>
+          <t>Dương Bảo Lưu</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6685,17 +6685,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>24022887</t>
+          <t>24022889</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Dương Bảo Lưu</t>
+          <t>Đỗ Minh</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6707,17 +6707,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>24022889</t>
+          <t>24022891</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Đỗ Minh</t>
+          <t>Trần Anh Minh</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6729,17 +6729,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>24022891</t>
+          <t>24022893</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Trần Anh Minh</t>
+          <t>Nguyễn Thành Nam</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6751,17 +6751,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>24022893</t>
+          <t>24022895</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Nguyễn Thành Nam</t>
+          <t>Phạm Phương Nam</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6773,17 +6773,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>24022895</t>
+          <t>24022897</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Phạm Phương Nam</t>
+          <t>Phạm Minh Nghĩa</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6795,17 +6795,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>24022897</t>
+          <t>24022899</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Phạm Minh Nghĩa</t>
+          <t>Trịnh Thị Kim Oanh</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6817,17 +6817,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>24022899</t>
+          <t>24022901</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Trịnh Thị Kim Oanh</t>
+          <t>Nguyễn Văn Phúc</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6839,42 +6839,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>24022901</t>
+          <t>24022907</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Phúc</t>
+          <t>Đào Ngọc Minh Quang</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>24022907</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Đào Ngọc Minh Quang</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/students.xlsx
+++ b/students.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D292"/>
+  <dimension ref="A1:D293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1185,17 +1185,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>24020229</t>
+          <t>24020220</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kiều Nhật Minh</t>
+          <t>Nguyễn Tiến Mạnh</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1207,17 +1207,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>24020247</t>
+          <t>24020229</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Trần Hoài Nam</t>
+          <t>Kiều Nhật Minh</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1229,17 +1229,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>24020251</t>
+          <t>24020247</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nguyễn Trung Nghĩa</t>
+          <t>Trần Hoài Nam</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1251,17 +1251,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>24020256</t>
+          <t>24020251</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nguyễn Lê Duy Nhân</t>
+          <t>Nguyễn Trung Nghĩa</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1273,17 +1273,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>24020265</t>
+          <t>24020256</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Phạm Công Phát</t>
+          <t>Nguyễn Lê Duy Nhân</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1295,17 +1295,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>24020269</t>
+          <t>24020265</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nguyễn Duy Phong</t>
+          <t>Phạm Công Phát</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1317,17 +1317,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>24020272</t>
+          <t>24020269</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Phú</t>
+          <t>Nguyễn Duy Phong</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1339,17 +1339,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24020274</t>
+          <t>24020272</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Đinh Gia Phúc</t>
+          <t>Nguyễn Ngọc Phú</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1361,17 +1361,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>24020283</t>
+          <t>24020274</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lường Tú Quân</t>
+          <t>Đinh Gia Phúc</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1383,17 +1383,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>24020292</t>
+          <t>24020283</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Đỗ Minh Sơn</t>
+          <t>Lường Tú Quân</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1405,17 +1405,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>24020301</t>
+          <t>24020292</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cao Thị Mai Sương</t>
+          <t>Đỗ Minh Sơn</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1427,17 +1427,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>24020305</t>
+          <t>24020301</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Đào Quang Thái</t>
+          <t>Cao Thị Mai Sương</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1449,17 +1449,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>24020310</t>
+          <t>24020305</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Triệu Tuấn Thành</t>
+          <t>Đào Quang Thái</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1471,17 +1471,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>24020319</t>
+          <t>24020310</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Thìn Thị Thúy</t>
+          <t>Triệu Tuấn Thành</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1493,17 +1493,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>24020323</t>
+          <t>24020319</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Tiến</t>
+          <t>Thìn Thị Thúy</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1515,17 +1515,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>24020328</t>
+          <t>24020323</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Trần Huyền Trang</t>
+          <t>Nguyễn Xuân Tiến</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1537,17 +1537,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>24020332</t>
+          <t>24020328</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Nguyễn Huy Trọng</t>
+          <t>Trần Huyền Trang</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1559,17 +1559,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>24020337</t>
+          <t>24020332</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nguyễn Thành Trung</t>
+          <t>Nguyễn Huy Trọng</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1581,17 +1581,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>24020355</t>
+          <t>24020337</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Phạm Hữu Tùng</t>
+          <t>Nguyễn Thành Trung</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1603,17 +1603,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>24020364</t>
+          <t>24020355</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Vinh</t>
+          <t>Phạm Hữu Tùng</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1625,17 +1625,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>24020368</t>
+          <t>24020364</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Nguyễn Lưu Vũ</t>
+          <t>Nguyễn Hữu Vinh</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1647,17 +1647,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>24020660</t>
+          <t>24020368</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Phan Văn Thuận</t>
+          <t>Nguyễn Lưu Vũ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1669,17 +1669,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>24021436</t>
+          <t>24020660</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Triệu Tiến Dũng</t>
+          <t>Phan Văn Thuận</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1691,17 +1691,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>24021555</t>
+          <t>24021436</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Long</t>
+          <t>Triệu Tiến Dũng</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1713,17 +1713,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>24021558</t>
+          <t>24021555</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Ly</t>
+          <t>Nguyễn Đức Long</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1735,17 +1735,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>24022245</t>
+          <t>24021558</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bùi Tuấn An</t>
+          <t>Ngô Thị Cẩm Ly</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1757,17 +1757,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>24022246</t>
+          <t>24022245</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nguyễn Bá An</t>
+          <t>Bùi Tuấn An</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1779,17 +1779,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>24022247</t>
+          <t>24022246</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bình An</t>
+          <t>Nguyễn Bá An</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1801,17 +1801,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>24022248</t>
+          <t>24022247</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hoàng Hải Anh</t>
+          <t>Nguyễn Ngọc Bình An</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1823,17 +1823,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>24022249</t>
+          <t>24022248</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hoàng Tuấn Anh</t>
+          <t>Hoàng Hải Anh</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1845,17 +1845,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>24022251</t>
+          <t>24022249</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lê Đức Anh</t>
+          <t>Hoàng Tuấn Anh</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1867,17 +1867,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>24022252</t>
+          <t>24022251</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thảo Anh</t>
+          <t>Lê Đức Anh</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1889,17 +1889,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>24022253</t>
+          <t>24022252</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lê Vân Anh</t>
+          <t>Lê Hoàng Thảo Anh</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1911,17 +1911,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>24022254</t>
+          <t>24022253</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Nguyễn Công Anh</t>
+          <t>Lê Vân Anh</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1933,17 +1933,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>24022255</t>
+          <t>24022254</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Anh</t>
+          <t>Nguyễn Công Anh</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1955,17 +1955,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>24022257</t>
+          <t>24022255</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Anh</t>
+          <t>Nguyễn Hồng Anh</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1977,17 +1977,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>24022258</t>
+          <t>24022257</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tống Đức Hồng Anh</t>
+          <t>Nguyễn Xuân Anh</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1999,17 +1999,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>24022259</t>
+          <t>24022258</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Trần Quốc Anh</t>
+          <t>Tống Đức Hồng Anh</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2021,17 +2021,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>24022260</t>
+          <t>24022259</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Vũ Hải Anh</t>
+          <t>Trần Quốc Anh</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2043,17 +2043,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>24022261</t>
+          <t>24022260</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Vũ Thế Anh</t>
+          <t>Vũ Hải Anh</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2065,17 +2065,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>24022263</t>
+          <t>24022261</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Đào Duy Thái Bảo</t>
+          <t>Vũ Thế Anh</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2087,17 +2087,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>24022264</t>
+          <t>24022263</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Vũ Bảo</t>
+          <t>Đào Duy Thái Bảo</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2109,17 +2109,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>24022265</t>
+          <t>24022264</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Gia Bảo</t>
+          <t>Nguyễn Đức Vũ Bảo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2131,17 +2131,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>24022266</t>
+          <t>24022265</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Bảo</t>
+          <t>Nguyễn Phúc Gia Bảo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2153,17 +2153,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>24022267</t>
+          <t>24022266</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Phạm Gia Bảo</t>
+          <t>Nguyễn Xuân Bảo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2175,17 +2175,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>24022269</t>
+          <t>24022267</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Bình</t>
+          <t>Phạm Gia Bảo</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2197,17 +2197,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>24022270</t>
+          <t>24022269</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lê Hồng Phương Chi</t>
+          <t>Nguyễn Đức Bình</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2219,17 +2219,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>24022271</t>
+          <t>24022270</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lê Minh Chiến</t>
+          <t>Lê Hồng Phương Chi</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2241,17 +2241,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>24022272</t>
+          <t>24022271</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Công</t>
+          <t>Lê Minh Chiến</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2263,17 +2263,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>24022273</t>
+          <t>24022272</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thu Cúc</t>
+          <t>Nguyễn Hoàng Công</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2285,17 +2285,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>24022275</t>
+          <t>24022273</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Đỗ Kiên Cường</t>
+          <t>Nguyễn Thị Thu Cúc</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2307,17 +2307,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>24022276</t>
+          <t>24022275</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lê Mạnh Cường</t>
+          <t>Đỗ Kiên Cường</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2329,17 +2329,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>24022277</t>
+          <t>24022276</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lê Ngọc Minh Cường</t>
+          <t>Lê Mạnh Cường</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2351,17 +2351,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>24022278</t>
+          <t>24022277</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tạ Mạnh Cường</t>
+          <t>Lê Ngọc Minh Cường</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2373,17 +2373,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>24022279</t>
+          <t>24022278</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Vũ Việt Cường</t>
+          <t>Tạ Mạnh Cường</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2395,17 +2395,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>24022281</t>
+          <t>24022279</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Nguyễn Hải Đăng</t>
+          <t>Vũ Việt Cường</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2417,7 +2417,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>24022282</t>
+          <t>24022281</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2439,17 +2439,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>24022283</t>
+          <t>24022282</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Nguyễn Quý Hải Đăng</t>
+          <t>Nguyễn Hải Đăng</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2461,17 +2461,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>24022284</t>
+          <t>24022283</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Cao Tiến Đạt</t>
+          <t>Nguyễn Quý Hải Đăng</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2483,17 +2483,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>24022285</t>
+          <t>24022284</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Nguyễn Danh Đạt</t>
+          <t>Cao Tiến Đạt</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2505,17 +2505,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>24022287</t>
+          <t>24022285</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Trần Khánh Đạt</t>
+          <t>Nguyễn Danh Đạt</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2527,17 +2527,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>24022288</t>
+          <t>24022287</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Trần Tiến Đạt</t>
+          <t>Trần Khánh Đạt</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2549,17 +2549,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>24022289</t>
+          <t>24022288</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Đồng Minh Đức</t>
+          <t>Trần Tiến Đạt</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2571,17 +2571,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>24022290</t>
+          <t>24022289</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Dương Hoàng Đức</t>
+          <t>Đồng Minh Đức</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2593,17 +2593,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>24022291</t>
+          <t>24022290</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Lê Minh Đức</t>
+          <t>Dương Hoàng Đức</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2615,17 +2615,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>24022293</t>
+          <t>24022291</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lê Trung Đức</t>
+          <t>Lê Minh Đức</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2637,17 +2637,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>24022294</t>
+          <t>24022293</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Đức</t>
+          <t>Lê Trung Đức</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2659,17 +2659,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>24022295</t>
+          <t>24022294</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Nguyễn Việt Đức</t>
+          <t>Nguyễn Minh Đức</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2681,17 +2681,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>24022296</t>
+          <t>24022295</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Phạm Lê Việt Đức</t>
+          <t>Nguyễn Việt Đức</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2703,17 +2703,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>24022297</t>
+          <t>24022296</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Phan Anh Đức</t>
+          <t>Phạm Lê Việt Đức</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2725,17 +2725,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>24022299</t>
+          <t>24022297</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Bùi Tiến Dũng</t>
+          <t>Phan Anh Đức</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2747,17 +2747,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>24022300</t>
+          <t>24022299</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hà Đức Dũng</t>
+          <t>Bùi Tiến Dũng</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2769,17 +2769,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>24022301</t>
+          <t>24022300</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Nguyễn Tiến Dũng</t>
+          <t>Hà Đức Dũng</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2791,17 +2791,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>24022302</t>
+          <t>24022301</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Nguyễn Trung Đức Dũng</t>
+          <t>Nguyễn Tiến Dũng</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2813,17 +2813,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>24022303</t>
+          <t>24022302</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Vũ Hoàng Dũng</t>
+          <t>Nguyễn Trung Đức Dũng</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2835,17 +2835,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>24022305</t>
+          <t>24022303</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Nguyễn Khắc Hoàng Dương</t>
+          <t>Vũ Hoàng Dũng</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2857,17 +2857,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>24022306</t>
+          <t>24022305</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Nguyễn Tùng Dương</t>
+          <t>Nguyễn Khắc Hoàng Dương</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2879,17 +2879,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>24022307</t>
+          <t>24022306</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Phạm Thái Dương</t>
+          <t>Nguyễn Tùng Dương</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2901,17 +2901,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>24022308</t>
+          <t>24022307</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Trần Hữu Dương</t>
+          <t>Phạm Thái Dương</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2923,17 +2923,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>24022309</t>
+          <t>24022308</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Trần Tùng Dương</t>
+          <t>Trần Hữu Dương</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2945,12 +2945,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>24022311</t>
+          <t>24022309</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ngô Đức Duy</t>
+          <t>Trần Tùng Dương</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2967,17 +2967,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>24022312</t>
+          <t>24022311</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Duy</t>
+          <t>Ngô Đức Duy</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2989,17 +2989,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>24022313</t>
+          <t>24022312</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Nguyễn Sơn Duy</t>
+          <t>Nguyễn Bảo Duy</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3011,17 +3011,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>24022314</t>
+          <t>24022313</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Trần Bùi Hà Giang</t>
+          <t>Nguyễn Sơn Duy</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3033,17 +3033,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>24022315</t>
+          <t>24022314</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Chu Việt Hà</t>
+          <t>Trần Bùi Hà Giang</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3055,17 +3055,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>24022317</t>
+          <t>24022315</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Nguyễn Việt Hà</t>
+          <t>Chu Việt Hà</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3077,17 +3077,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>24022318</t>
+          <t>24022317</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Trịnh Tuấn Hải</t>
+          <t>Nguyễn Việt Hà</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3099,17 +3099,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>24022319</t>
+          <t>24022318</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Nguyễn Cảnh Hào</t>
+          <t>Trịnh Tuấn Hải</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3121,17 +3121,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>24022320</t>
+          <t>24022319</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Võ Văn Hậu</t>
+          <t>Nguyễn Cảnh Hào</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3143,17 +3143,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>24022321</t>
+          <t>24022320</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hiền</t>
+          <t>Võ Văn Hậu</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3165,17 +3165,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>24022323</t>
+          <t>24022321</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Nguyễn Thế Hiển</t>
+          <t>Nguyễn Thị Hiền</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3187,17 +3187,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>24022324</t>
+          <t>24022323</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Bùi Hữu Hiệp</t>
+          <t>Nguyễn Thế Hiển</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3209,17 +3209,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>24022325</t>
+          <t>24022324</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ngô Trọng Hiệp</t>
+          <t>Bùi Hữu Hiệp</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3231,17 +3231,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>24022326</t>
+          <t>24022325</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Hoàng Mạnh Hiếu</t>
+          <t>Ngô Trọng Hiệp</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3253,17 +3253,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>24022327</t>
+          <t>24022326</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Lê Huy Hiếu</t>
+          <t>Hoàng Mạnh Hiếu</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3275,17 +3275,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>24022329</t>
+          <t>24022327</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Nguyễn Đắc Trung Hiếu</t>
+          <t>Lê Huy Hiếu</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3297,17 +3297,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>24022330</t>
+          <t>24022329</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Trần Trung Hiếu</t>
+          <t>Nguyễn Đắc Trung Hiếu</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3319,17 +3319,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>24022331</t>
+          <t>24022330</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Văn Đức Hiếu</t>
+          <t>Trần Trung Hiếu</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3341,17 +3341,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>24022332</t>
+          <t>24022331</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cao Huy Hòa</t>
+          <t>Văn Đức Hiếu</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3363,17 +3363,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>24022333</t>
+          <t>24022332</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Hòa</t>
+          <t>Cao Huy Hòa</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3385,17 +3385,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>24022335</t>
+          <t>24022333</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Đinh Ích Minh Hoàng</t>
+          <t>Nguyễn Hữu Hòa</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3407,17 +3407,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>24022336</t>
+          <t>24022335</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Hoàng Huy Hoàng</t>
+          <t>Đinh Ích Minh Hoàng</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3429,17 +3429,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>24022337</t>
+          <t>24022336</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lương Quang Hoàng</t>
+          <t>Hoàng Huy Hoàng</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3451,17 +3451,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>24022338</t>
+          <t>24022337</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Nguyễn Huy Hoàng</t>
+          <t>Lương Quang Hoàng</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3473,17 +3473,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>24022339</t>
+          <t>24022338</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Hoàng</t>
+          <t>Nguyễn Huy Hoàng</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3495,17 +3495,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>24022341</t>
+          <t>24022339</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Trương Huy Hoàng</t>
+          <t>Nguyễn Minh Hoàng</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3517,17 +3517,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>24022342</t>
+          <t>24022341</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Đỗ Đức Hùng</t>
+          <t>Trương Huy Hoàng</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3539,17 +3539,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>24022343</t>
+          <t>24022342</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Hoàng Quốc Hùng</t>
+          <t>Đỗ Đức Hùng</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3561,17 +3561,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>24022344</t>
+          <t>24022343</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Nguyễn Viết Hùng</t>
+          <t>Hoàng Quốc Hùng</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3583,17 +3583,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>24022345</t>
+          <t>24022344</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Bùi Quang Hưng</t>
+          <t>Nguyễn Viết Hùng</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3605,17 +3605,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>24022347</t>
+          <t>24022345</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Dương Việt Hưng</t>
+          <t>Bùi Quang Hưng</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3627,17 +3627,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>24022348</t>
+          <t>24022347</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Hà Huy Hưng</t>
+          <t>Dương Việt Hưng</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3649,17 +3649,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>24022349</t>
+          <t>24022348</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Nguyễn Duy Hưng</t>
+          <t>Hà Huy Hưng</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3671,17 +3671,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>24022350</t>
+          <t>24022349</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Phạm Thế Hưng</t>
+          <t>Nguyễn Duy Hưng</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3693,17 +3693,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>24022351</t>
+          <t>24022350</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Phan Quang Hưng</t>
+          <t>Phạm Thế Hưng</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3715,17 +3715,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>24022353</t>
+          <t>24022351</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Đào Việt Huy</t>
+          <t>Phan Quang Hưng</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3737,17 +3737,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>24022354</t>
+          <t>24022353</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Doanh Quang Huy</t>
+          <t>Đào Việt Huy</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3759,17 +3759,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>24022355</t>
+          <t>24022354</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Khổng Quang Huy</t>
+          <t>Doanh Quang Huy</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3781,17 +3781,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>24022356</t>
+          <t>24022355</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Huy</t>
+          <t>Khổng Quang Huy</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3803,17 +3803,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>24022357</t>
+          <t>24022356</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Phạm Gia Hồ Huy</t>
+          <t>Nguyễn Minh Huy</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3825,17 +3825,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>24022359</t>
+          <t>24022357</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Hoàng Tuấn Khanh</t>
+          <t>Phạm Gia Hồ Huy</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3847,17 +3847,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>24022360</t>
+          <t>24022359</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Doãn Nam Khánh</t>
+          <t>Hoàng Tuấn Khanh</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3869,17 +3869,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>24022361</t>
+          <t>24022360</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nguyễn Duy Khánh</t>
+          <t>Doãn Nam Khánh</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3891,17 +3891,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>24022362</t>
+          <t>24022361</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Nguyễn Quốc Khánh</t>
+          <t>Nguyễn Duy Khánh</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3913,17 +3913,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>24022363</t>
+          <t>24022362</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Nguyễn Tiến Ngọc Khánh</t>
+          <t>Nguyễn Quốc Khánh</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3935,17 +3935,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>24022365</t>
+          <t>24022363</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Đào Minh Khoa</t>
+          <t>Nguyễn Tiến Ngọc Khánh</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3957,17 +3957,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>24022366</t>
+          <t>24022365</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Hà Anh Khoa</t>
+          <t>Đào Minh Khoa</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3979,17 +3979,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>24022367</t>
+          <t>24022366</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lê Anh Khoa</t>
+          <t>Hà Anh Khoa</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4001,17 +4001,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>24022368</t>
+          <t>24022367</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Khoa</t>
+          <t>Lê Anh Khoa</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4023,17 +4023,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>24022369</t>
+          <t>24022368</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Phạm Đăng Khoa</t>
+          <t>Nguyễn Minh Khoa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4045,17 +4045,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>24022371</t>
+          <t>24022369</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hoàng Công Khôi</t>
+          <t>Phạm Đăng Khoa</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4067,17 +4067,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>24022372</t>
+          <t>24022371</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Nguyễn Đăng Khôi</t>
+          <t>Hoàng Công Khôi</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4089,17 +4089,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>24022373</t>
+          <t>24022372</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nguyễn Công Kiên</t>
+          <t>Nguyễn Đăng Khôi</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4111,17 +4111,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>24022374</t>
+          <t>24022373</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Nguyễn Trung Kiên</t>
+          <t>Nguyễn Công Kiên</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4133,17 +4133,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>24022375</t>
+          <t>24022374</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Trần Trung Kiên</t>
+          <t>Nguyễn Trung Kiên</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4155,17 +4155,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>24022377</t>
+          <t>24022375</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Lê Thanh Lâm</t>
+          <t>Trần Trung Kiên</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4177,17 +4177,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>24022378</t>
+          <t>24022377</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nguyễn Thành Lâm</t>
+          <t>Lê Thanh Lâm</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4199,17 +4199,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>24022379</t>
+          <t>24022378</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Phạm Thanh Lâm</t>
+          <t>Nguyễn Thành Lâm</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4221,17 +4221,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>24022380</t>
+          <t>24022379</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Phạm Tùng Lâm</t>
+          <t>Phạm Thanh Lâm</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4243,17 +4243,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>24022381</t>
+          <t>24022380</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Bùi Quang Lê</t>
+          <t>Phạm Tùng Lâm</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4265,17 +4265,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>24022383</t>
+          <t>24022381</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Lê Quyền Linh</t>
+          <t>Bùi Quang Lê</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4287,17 +4287,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>24022384</t>
+          <t>24022383</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Lê Thị Khánh Linh</t>
+          <t>Lê Quyền Linh</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4309,17 +4309,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>24022385</t>
+          <t>24022384</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Phạm Thị Khánh Linh</t>
+          <t>Lê Thị Khánh Linh</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4331,17 +4331,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>24022386</t>
+          <t>24022385</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Trương Ái Linh</t>
+          <t>Phạm Thị Khánh Linh</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4353,17 +4353,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>24022387</t>
+          <t>24022386</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Vũ Hoàng Diệu Linh</t>
+          <t>Trương Ái Linh</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4375,17 +4375,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>24022389</t>
+          <t>24022387</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Đỗ Hoàng Long</t>
+          <t>Vũ Hoàng Diệu Linh</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4397,17 +4397,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>24022390</t>
+          <t>24022389</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Hoa Văn Long</t>
+          <t>Đỗ Hoàng Long</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4419,17 +4419,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>24022391</t>
+          <t>24022390</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Long</t>
+          <t>Hoa Văn Long</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4441,17 +4441,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>24022392</t>
+          <t>24022391</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Đặng Duy Mạnh</t>
+          <t>Nguyễn Đức Long</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4463,17 +4463,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>24022393</t>
+          <t>24022392</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Đoàn Quang Mạnh</t>
+          <t>Đặng Duy Mạnh</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4485,17 +4485,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>24022395</t>
+          <t>24022393</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Nguyễn Tiến Mạnh</t>
+          <t>Đoàn Quang Mạnh</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4507,17 +4507,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>24022396</t>
+          <t>24022395</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Bùi Công Minh</t>
+          <t>Nguyễn Tiến Mạnh</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4529,17 +4529,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>24022397</t>
+          <t>24022396</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Đặng Quang Minh</t>
+          <t>Bùi Công Minh</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4551,17 +4551,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>24022398</t>
+          <t>24022397</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Đinh Quang Minh</t>
+          <t>Đặng Quang Minh</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4573,17 +4573,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>24022399</t>
+          <t>24022398</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Đỗ Hoàng Minh</t>
+          <t>Đinh Quang Minh</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4595,17 +4595,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>24022401</t>
+          <t>24022399</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Dương Quang Minh</t>
+          <t>Đỗ Hoàng Minh</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4617,17 +4617,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>24022402</t>
+          <t>24022401</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Lê Công Minh</t>
+          <t>Dương Quang Minh</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4639,17 +4639,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>24022403</t>
+          <t>24022402</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Nhật Minh</t>
+          <t>Lê Công Minh</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4661,17 +4661,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>24022404</t>
+          <t>24022403</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Minh</t>
+          <t>Nguyễn Đoàn Nhật Minh</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4683,7 +4683,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>24022405</t>
+          <t>24022404</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4705,17 +4705,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>24022407</t>
+          <t>24022405</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nguyễn Tân Hoàng Minh</t>
+          <t>Nguyễn Đức Minh</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4727,17 +4727,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>24022408</t>
+          <t>24022407</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhật Minh</t>
+          <t>Nguyễn Tân Hoàng Minh</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4749,17 +4749,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>24022409</t>
+          <t>24022408</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Phạm Quang Minh</t>
+          <t>Nguyễn Thị Nhật Minh</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4771,7 +4771,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>24022410</t>
+          <t>24022409</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4793,17 +4793,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>24022411</t>
+          <t>24022410</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Phạm Văn Minh</t>
+          <t>Phạm Quang Minh</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4815,17 +4815,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>24022413</t>
+          <t>24022411</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Trịnh Bình Minh</t>
+          <t>Phạm Văn Minh</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4837,17 +4837,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>24022414</t>
+          <t>24022413</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Nguyễn Hải Nam</t>
+          <t>Trịnh Bình Minh</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4859,17 +4859,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>24022415</t>
+          <t>24022414</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Phạm Bá Nam</t>
+          <t>Nguyễn Hải Nam</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4881,17 +4881,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>24022416</t>
+          <t>24022415</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Phạm Vũ Nam</t>
+          <t>Phạm Bá Nam</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4903,17 +4903,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>24022417</t>
+          <t>24022416</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Lê Tiến Nghĩa</t>
+          <t>Phạm Vũ Nam</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4925,17 +4925,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>24022419</t>
+          <t>24022417</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Quách Lê Hồng Ngọc</t>
+          <t>Lê Tiến Nghĩa</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4947,17 +4947,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>24022420</t>
+          <t>24022419</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Dương Trọng Nguyên</t>
+          <t>Quách Lê Hồng Ngọc</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4969,17 +4969,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>24022421</t>
+          <t>24022420</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Trần Hoàng Nguyên</t>
+          <t>Dương Trọng Nguyên</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4991,17 +4991,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>24022422</t>
+          <t>24022421</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Nguyễn Thiện Nhân</t>
+          <t>Trần Hoàng Nguyên</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5013,17 +5013,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>24022423</t>
+          <t>24022422</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Đặng Minh Nhật</t>
+          <t>Nguyễn Thiện Nhân</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5035,17 +5035,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>24022425</t>
+          <t>24022423</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Vũ Đức Phong</t>
+          <t>Đặng Minh Nhật</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5057,17 +5057,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>24022426</t>
+          <t>24022425</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Lê Việt Phú</t>
+          <t>Vũ Đức Phong</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5079,17 +5079,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>24022427</t>
+          <t>24022426</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Nguyễn Đình Phú</t>
+          <t>Lê Việt Phú</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5101,17 +5101,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>24022428</t>
+          <t>24022427</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ngô Huy Phúc</t>
+          <t>Nguyễn Đình Phú</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5123,17 +5123,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>24022429</t>
+          <t>24022428</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ngô Mai Phương</t>
+          <t>Ngô Huy Phúc</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5145,17 +5145,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>24022431</t>
+          <t>24022429</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Nguyễn Việt Phương</t>
+          <t>Ngô Mai Phương</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5167,17 +5167,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>24022432</t>
+          <t>24022431</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Đỗ Mạnh Quân</t>
+          <t>Nguyễn Việt Phương</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5189,17 +5189,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>24022433</t>
+          <t>24022432</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Lê Hoàng Quân</t>
+          <t>Đỗ Mạnh Quân</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5211,17 +5211,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>24022434</t>
+          <t>24022433</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Quân</t>
+          <t>Lê Hoàng Quân</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5233,17 +5233,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>24022435</t>
+          <t>24022434</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Trần Đức Quang</t>
+          <t>Nguyễn Minh Quân</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5255,17 +5255,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>24022437</t>
+          <t>24022435</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Nguyễn Sỹ Quyền</t>
+          <t>Trần Đức Quang</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5277,17 +5277,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>24022438</t>
+          <t>24022437</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Vũ Ngọc Quyền</t>
+          <t>Nguyễn Sỹ Quyền</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5299,17 +5299,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>24022439</t>
+          <t>24022438</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Lê Văn Sang</t>
+          <t>Vũ Ngọc Quyền</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5321,17 +5321,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>24022440</t>
+          <t>24022439</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Nguyễn Quang Sang</t>
+          <t>Lê Văn Sang</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5343,17 +5343,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>24022441</t>
+          <t>24022440</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Lưu Uyên Sơn</t>
+          <t>Nguyễn Quang Sang</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5365,17 +5365,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>24022443</t>
+          <t>24022441</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Nguyễn Lê Nam Sơn</t>
+          <t>Lưu Uyên Sơn</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5387,17 +5387,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>24022444</t>
+          <t>24022443</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Sơn</t>
+          <t>Nguyễn Lê Nam Sơn</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5409,17 +5409,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>24022445</t>
+          <t>24022444</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Nguyễn Sỹ Trường Sơn</t>
+          <t>Nguyễn Phúc Sơn</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5431,17 +5431,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>24022446</t>
+          <t>24022445</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Vũ Ngọc Sơn</t>
+          <t>Nguyễn Sỹ Trường Sơn</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5453,17 +5453,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>24022447</t>
+          <t>24022446</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Lưu Xuân Tân</t>
+          <t>Vũ Ngọc Sơn</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5475,17 +5475,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>24022449</t>
+          <t>24022447</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Phạm Danh Thái</t>
+          <t>Lưu Xuân Tân</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5497,17 +5497,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>24022450</t>
+          <t>24022449</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Tống Quang Thái</t>
+          <t>Phạm Danh Thái</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5519,17 +5519,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>24022451</t>
+          <t>24022450</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Trần Quang Thái</t>
+          <t>Tống Quang Thái</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5541,17 +5541,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>24022452</t>
+          <t>24022451</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Đỗ Duy Thành</t>
+          <t>Trần Quang Thái</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5563,17 +5563,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>24022453</t>
+          <t>24022452</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Lê Tiến Thành</t>
+          <t>Đỗ Duy Thành</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5585,17 +5585,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>24022455</t>
+          <t>24022453</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Phạm Công Thành</t>
+          <t>Lê Tiến Thành</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5607,17 +5607,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>24022456</t>
+          <t>24022455</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Trương Văn Thành</t>
+          <t>Phạm Công Thành</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5629,17 +5629,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>24022457</t>
+          <t>24022456</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Hà Ngọc Thiện</t>
+          <t>Trương Văn Thành</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5651,17 +5651,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>24022458</t>
+          <t>24022457</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Đỗ Khắc Phúc Thịnh</t>
+          <t>Hà Ngọc Thiện</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5673,17 +5673,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>24022461</t>
+          <t>24022458</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Phạm Văn Vương Thuận</t>
+          <t>Đỗ Khắc Phúc Thịnh</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5695,17 +5695,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>24022462</t>
+          <t>24022461</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Nguyễn Huyền Thương</t>
+          <t>Phạm Văn Vương Thuận</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5717,17 +5717,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>24022463</t>
+          <t>24022462</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Đàm Quang Tiến</t>
+          <t>Nguyễn Huyền Thương</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5739,17 +5739,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>24022464</t>
+          <t>24022463</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Phạm Quang Tiến</t>
+          <t>Đàm Quang Tiến</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5761,17 +5761,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>24022467</t>
+          <t>24022464</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Phạm Sỹ Toàn</t>
+          <t>Phạm Quang Tiến</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5783,17 +5783,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>24022468</t>
+          <t>24022467</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Tạ Văn Toàn</t>
+          <t>Phạm Sỹ Toàn</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5805,17 +5805,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>24022469</t>
+          <t>24022468</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Trịnh Kế Toàn</t>
+          <t>Tạ Văn Toàn</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5827,17 +5827,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>24022470</t>
+          <t>24022469</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hiền Trang</t>
+          <t>Trịnh Kế Toàn</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5849,17 +5849,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>24022473</t>
+          <t>24022470</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Trung</t>
+          <t>Nguyễn Thị Hiền Trang</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5871,17 +5871,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>24022474</t>
+          <t>24022473</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Nguyễn Quốc Trung</t>
+          <t>Nguyễn Đức Trung</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5893,17 +5893,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>24022475</t>
+          <t>24022474</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Trung</t>
+          <t>Nguyễn Quốc Trung</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5915,17 +5915,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>24022476</t>
+          <t>24022475</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Phạm Thành Trung</t>
+          <t>Nguyễn Văn Trung</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5937,17 +5937,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>24022479</t>
+          <t>24022476</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Nguyễn Quang Trường</t>
+          <t>Phạm Thành Trung</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5959,17 +5959,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>24022480</t>
+          <t>24022479</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Nguyễn Thiên Trường</t>
+          <t>Nguyễn Quang Trường</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5981,17 +5981,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>24022481</t>
+          <t>24022480</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Nguyễn Tất Tú</t>
+          <t>Nguyễn Thiên Trường</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6003,17 +6003,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>24022482</t>
+          <t>24022481</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Nguyễn Anh Tuấn</t>
+          <t>Nguyễn Tất Tú</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6025,17 +6025,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>24022485</t>
+          <t>24022482</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Trần Công Tuấn</t>
+          <t>Nguyễn Anh Tuấn</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6047,17 +6047,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>24022486</t>
+          <t>24022485</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Trần Đoàn Minh Tuệ</t>
+          <t>Trần Công Tuấn</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6069,17 +6069,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>24022487</t>
+          <t>24022486</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Tùng</t>
+          <t>Trần Đoàn Minh Tuệ</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6091,17 +6091,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>24022488</t>
+          <t>24022487</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Phạm Nguyễn Xuân Tùng</t>
+          <t>Nguyễn Văn Tùng</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6113,17 +6113,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>24022491</t>
+          <t>24022488</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Đào Gia Thế Vũ</t>
+          <t>Phạm Nguyễn Xuân Tùng</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6135,17 +6135,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>24022492</t>
+          <t>24022491</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Nguyễn Anh Vũ</t>
+          <t>Đào Gia Thế Vũ</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6157,17 +6157,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>24022493</t>
+          <t>24022492</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Vũ</t>
+          <t>Nguyễn Anh Vũ</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6179,17 +6179,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>24022494</t>
+          <t>24022493</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Trần Hoàng Vũ</t>
+          <t>Nguyễn Văn Vũ</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6201,17 +6201,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>24022754</t>
+          <t>24022494</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Hoàng Tạ Minh Tuấn</t>
+          <t>Trần Hoàng Vũ</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6223,17 +6223,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>24022847</t>
+          <t>24022754</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Vũ Lê Bình An</t>
+          <t>Hoàng Tạ Minh Tuấn</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -6245,17 +6245,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>24022849</t>
+          <t>24022847</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Trần Quốc Bảo</t>
+          <t>Vũ Lê Bình An</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -6267,17 +6267,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>24022851</t>
+          <t>24022849</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Trần Quốc Đại</t>
+          <t>Trần Quốc Bảo</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -6289,17 +6289,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>24022853</t>
+          <t>24022851</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Hoàng Tiến Đạt</t>
+          <t>Trần Quốc Đại</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6311,17 +6311,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>24022855</t>
+          <t>24022853</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Phạm Thành Đạt</t>
+          <t>Hoàng Tiến Đạt</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -6333,17 +6333,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>24022857</t>
+          <t>24022855</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Lê Trung Đức</t>
+          <t>Phạm Thành Đạt</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -6355,17 +6355,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>24022859</t>
+          <t>24022857</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Lê Chí Dũng</t>
+          <t>Lê Trung Đức</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6377,17 +6377,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>24022861</t>
+          <t>24022859</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Trần Việt Dũng</t>
+          <t>Lê Chí Dũng</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6399,17 +6399,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>24022863</t>
+          <t>24022861</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Nguyễn Đình Khánh Duy</t>
+          <t>Trần Việt Dũng</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6421,17 +6421,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>24022865</t>
+          <t>24022863</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Đặng Thanh Hải</t>
+          <t>Nguyễn Đình Khánh Duy</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6443,17 +6443,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>24022867</t>
+          <t>24022865</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hậu</t>
+          <t>Đặng Thanh Hải</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6465,17 +6465,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>24022869</t>
+          <t>24022867</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Đỗ Minh Hiếu</t>
+          <t>Nguyễn Xuân Hậu</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6487,17 +6487,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>24022871</t>
+          <t>24022869</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Tào Hiếu</t>
+          <t>Đỗ Minh Hiếu</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -6509,17 +6509,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>24022873</t>
+          <t>24022871</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Hoàng Minh Hoàng</t>
+          <t>Tào Hiếu</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6531,17 +6531,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>24022875</t>
+          <t>24022873</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Trần Huy Hoàng</t>
+          <t>Hoàng Minh Hoàng</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6553,17 +6553,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>24022877</t>
+          <t>24022875</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Phạm Quốc Hưng</t>
+          <t>Trần Huy Hoàng</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6575,17 +6575,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>24022879</t>
+          <t>24022877</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Phạm Duy Khánh</t>
+          <t>Phạm Quốc Hưng</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6597,17 +6597,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>24022881</t>
+          <t>24022879</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Lưu Đình Khôi</t>
+          <t>Phạm Duy Khánh</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6619,17 +6619,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>24022883</t>
+          <t>24022881</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Nguyễn Thành Long</t>
+          <t>Lưu Đình Khôi</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6641,17 +6641,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>24022885</t>
+          <t>24022883</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Trần Đình Lộc</t>
+          <t>Nguyễn Thành Long</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6663,17 +6663,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>24022887</t>
+          <t>24022885</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Dương Bảo Lưu</t>
+          <t>Trần Đình Lộc</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6685,17 +6685,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>24022889</t>
+          <t>24022887</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Đỗ Minh</t>
+          <t>Dương Bảo Lưu</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6707,17 +6707,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>24022891</t>
+          <t>24022889</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Trần Anh Minh</t>
+          <t>Đỗ Minh</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6729,17 +6729,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>24022893</t>
+          <t>24022891</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Nguyễn Thành Nam</t>
+          <t>Trần Anh Minh</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6751,17 +6751,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>24022895</t>
+          <t>24022893</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Phạm Phương Nam</t>
+          <t>Nguyễn Thành Nam</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6773,17 +6773,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>24022897</t>
+          <t>24022895</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Phạm Minh Nghĩa</t>
+          <t>Phạm Phương Nam</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6795,17 +6795,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>24022899</t>
+          <t>24022897</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Trịnh Thị Kim Oanh</t>
+          <t>Phạm Minh Nghĩa</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6817,17 +6817,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>24022901</t>
+          <t>24022899</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Phúc</t>
+          <t>Trịnh Thị Kim Oanh</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6839,20 +6839,42 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
+          <t>24022901</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Phúc</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
           <t>24022907</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B293" t="inlineStr">
         <is>
           <t>Đào Ngọc Minh Quang</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="C293" t="inlineStr">
         <is>
           <t>2.63</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr">
+      <c r="D293" t="inlineStr">
         <is>
           <t>2</t>
         </is>
